--- a/results/I3_N5_M2_T30_C100_DepCentral_s2_mean_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepCentral_s2_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1572.329871836883</v>
+        <v>1287.706724749106</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3670001029968262</v>
+        <v>0.5590000152587891</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.84647314566407</v>
+        <v>22.71436508284903</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.77153722745031</v>
+        <v>5.79934149303875</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.074935918213754</v>
+        <v>4.791701159296143</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1554.180000000456</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="10">
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,17 +590,6 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -645,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -656,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -667,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -874,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20.66483080554379</v>
+        <v>24.86548931250504</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>21.29375422704614</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +879,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22.99312545677585</v>
+        <v>25.17182228993174</v>
       </c>
     </row>
     <row r="6">
@@ -906,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>26.48326856299774</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -936,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -971,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -991,48 +980,6 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1091,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>156.3449999999993</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4">
@@ -1102,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>115.2720000000004</v>
+        <v>134.4</v>
       </c>
     </row>
     <row r="5">
@@ -1113,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>151.5340000000415</v>
+        <v>136.6</v>
       </c>
     </row>
     <row r="6">
@@ -1124,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>107.7910000000138</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -1135,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>203.8840000000009</v>
+        <v>65.8</v>
       </c>
     </row>
     <row r="8">
@@ -1146,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>151.5340000000429</v>
+        <v>136.6</v>
       </c>
     </row>
     <row r="9">
@@ -1157,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>203.8840000000027</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -1204,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>51.53400000004285</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="3">
@@ -1215,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>103.8840000000027</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1378,28 +1325,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
